--- a/Excel-XLSX/UN-UAE.xlsx
+++ b/Excel-XLSX/UN-UAE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="631">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>3mbj2D</t>
+    <t>Sd3V4s</t>
   </si>
   <si>
     <t>1968</t>
@@ -1869,10 +1869,7 @@
     <t>417</t>
   </si>
   <si>
-    <t>765</t>
-  </si>
-  <si>
-    <t>502</t>
+    <t>746</t>
   </si>
   <si>
     <t>418</t>
@@ -1902,13 +1899,13 @@
     <t>426</t>
   </si>
   <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>5772</t>
+  </si>
+  <si>
     <t>427</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
-    <t>6330</t>
   </si>
   <si>
     <t>428</t>
@@ -30293,10 +30290,10 @@
         <v>32</v>
       </c>
       <c r="N412" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O412" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P412" s="2" t="s">
         <v>34</v>
@@ -30432,22 +30429,22 @@
         <v>43</v>
       </c>
       <c r="O414" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P414" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q414" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R414" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S414" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T414" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="P414" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q414" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R414" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S414" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T414" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="U414" s="1" t="s">
         <v>35</v>
@@ -30565,10 +30562,10 @@
         <v>32</v>
       </c>
       <c r="N416" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O416" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="P416" s="2" t="s">
         <v>34</v>
@@ -30583,7 +30580,7 @@
         <v>34</v>
       </c>
       <c r="T416" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U416" s="1" t="s">
         <v>35</v>
@@ -30633,7 +30630,7 @@
         <v>32</v>
       </c>
       <c r="N417" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="O417" s="2" t="s">
         <v>43</v>
@@ -30704,7 +30701,7 @@
         <v>617</v>
       </c>
       <c r="O418" s="2" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="P418" s="2" t="s">
         <v>34</v>
@@ -30719,7 +30716,7 @@
         <v>34</v>
       </c>
       <c r="T418" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="U418" s="1" t="s">
         <v>35</v>
@@ -30739,7 +30736,7 @@
         <v>22</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>610</v>
@@ -30769,7 +30766,7 @@
         <v>32</v>
       </c>
       <c r="N419" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O419" s="2" t="s">
         <v>34</v>
@@ -30807,7 +30804,7 @@
         <v>22</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>610</v>
@@ -30875,7 +30872,7 @@
         <v>22</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>610</v>
@@ -30923,7 +30920,7 @@
         <v>34</v>
       </c>
       <c r="T421" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U421" s="1" t="s">
         <v>35</v>
@@ -30943,7 +30940,7 @@
         <v>22</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>610</v>
@@ -30991,7 +30988,7 @@
         <v>34</v>
       </c>
       <c r="T422" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U422" s="1" t="s">
         <v>35</v>
@@ -31011,7 +31008,7 @@
         <v>22</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>610</v>
@@ -31041,7 +31038,7 @@
         <v>32</v>
       </c>
       <c r="N423" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O423" s="2" t="s">
         <v>34</v>
@@ -31079,7 +31076,7 @@
         <v>22</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>610</v>
@@ -31127,7 +31124,7 @@
         <v>34</v>
       </c>
       <c r="T424" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="U424" s="1" t="s">
         <v>35</v>
@@ -31147,7 +31144,7 @@
         <v>22</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>610</v>
@@ -31215,22 +31212,22 @@
         <v>22</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>610</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="I426" s="1" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>29</v>
@@ -31245,7 +31242,7 @@
         <v>32</v>
       </c>
       <c r="N426" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="O426" s="2" t="s">
         <v>34</v>
@@ -31283,22 +31280,22 @@
         <v>22</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>610</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H427" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I427" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J427" s="2" t="s">
         <v>29</v>
@@ -31313,25 +31310,25 @@
         <v>32</v>
       </c>
       <c r="N427" s="2" t="s">
-        <v>69</v>
+        <v>627</v>
       </c>
       <c r="O427" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="P427" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q427" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R427" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S427" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T427" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="P427" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q427" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R427" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S427" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T427" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="U427" s="1" t="s">
         <v>35</v>
@@ -31351,22 +31348,22 @@
         <v>22</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>610</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="I428" s="1" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="J428" s="2" t="s">
         <v>29</v>
@@ -31381,10 +31378,10 @@
         <v>32</v>
       </c>
       <c r="N428" s="2" t="s">
-        <v>629</v>
+        <v>43</v>
       </c>
       <c r="O428" s="2" t="s">
-        <v>630</v>
+        <v>34</v>
       </c>
       <c r="P428" s="2" t="s">
         <v>34</v>
@@ -31399,7 +31396,7 @@
         <v>34</v>
       </c>
       <c r="T428" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="U428" s="1" t="s">
         <v>35</v>
@@ -31419,7 +31416,7 @@
         <v>22</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>610</v>
@@ -31452,7 +31449,7 @@
         <v>66</v>
       </c>
       <c r="O429" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P429" s="2" t="s">
         <v>34</v>
